--- a/doc/ue_pause.xlsx
+++ b/doc/ue_pause.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2B888B-363D-4C7C-B7F9-525D56F92A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1AEAF-AD05-43E7-A231-BCF19BCBBBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>摄像机不更新</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,14 @@
   </si>
   <si>
     <t>！！！动态粒子屏蔽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (!bIsPaused || PlayerController-&gt;ShouldPerformFullTickWhenPaused())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！如果没有Pause或者Controller设置了Pause时也Tick，就更新摄像机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +597,7 @@
   <dimension ref="B2:P116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -653,77 +661,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>7</v>
       </c>
